--- a/file2.xlsx
+++ b/file2.xlsx
@@ -407,68 +407,68 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2">
-        <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3">
-        <v>112</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6">
+        <v>114</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>114</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>11</v>

--- a/file2.xlsx
+++ b/file2.xlsx
@@ -407,15 +407,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -425,11 +425,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -439,11 +439,11 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -453,11 +453,11 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -467,18 +467,18 @@
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
